--- a/biology/Botanique/Salix_monticola/Salix_monticola.xlsx
+++ b/biology/Botanique/Salix_monticola/Salix_monticola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix monticola est une espèce de saule de la famille des Salicaceae.
-Communément appelé mountain willow, cherry willow, serviceberry willow, et park willow, on le trouve aux États-Unis d'Amérique, notamment dans les Rocky Mountains, de la région du Wyoming jusqu'en Arizona et au Nouveau-Mexique[2]. Il pousse également en Alaska et dans certaines zones du Canada[3].
+Communément appelé mountain willow, cherry willow, serviceberry willow, et park willow, on le trouve aux États-Unis d'Amérique, notamment dans les Rocky Mountains, de la région du Wyoming jusqu'en Arizona et au Nouveau-Mexique. Il pousse également en Alaska et dans certaines zones du Canada.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Salix amelanchieroides ;
 Salix dissymetrica ;
@@ -545,10 +559,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les conditions environnementales en font un arbre qui varie beaucoup en apparence. Il atteint une taille de 4 à 6 m de haut[3],[2] en touffes denses[3]. Ses branches sont jaunâtres ou brun-rougeâtre, tachetées de vert. Les feuilles ont une forme qui va de lancéolée à ovale et mesurent 9,5 cm de long. Leur bordure est lisse, ondulée ou crantée[2]. Les chatons sont souvent pollinisés par les abeilles. Les graines ne sont viables que très peu de temps mais germent immédiatement sur un substrat humide[3].
-Cette plante est commune sur les rives des cours d'eau de l'Alaska arctique et du Yukon. Elle forme des fourrés sur les plaines inondables où un récent dépôt de sédiments a été effectué par les courants. Dans l'ouest du Colorado, elle peut se trouver dominante ou co-dominante dans les zones ripariennes[3]. C'est une source importante de nourriture pour les élans et les ptarmigans. Les abeilles mellifères en tirent du pollen et du nectar[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les conditions environnementales en font un arbre qui varie beaucoup en apparence. Il atteint une taille de 4 à 6 m de haut, en touffes denses. Ses branches sont jaunâtres ou brun-rougeâtre, tachetées de vert. Les feuilles ont une forme qui va de lancéolée à ovale et mesurent 9,5 cm de long. Leur bordure est lisse, ondulée ou crantée. Les chatons sont souvent pollinisés par les abeilles. Les graines ne sont viables que très peu de temps mais germent immédiatement sur un substrat humide.
+Cette plante est commune sur les rives des cours d'eau de l'Alaska arctique et du Yukon. Elle forme des fourrés sur les plaines inondables où un récent dépôt de sédiments a été effectué par les courants. Dans l'ouest du Colorado, elle peut se trouver dominante ou co-dominante dans les zones ripariennes. C'est une source importante de nourriture pour les élans et les ptarmigans. Les abeilles mellifères en tirent du pollen et du nectar.
 </t>
         </is>
       </c>
